--- a/Bitcoin.xlsx
+++ b/Bitcoin.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70242\Documents\Python\RH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meiconte\Documents\RH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -421,13 +421,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2932"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1185" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B2932"/>
+    <sheetView tabSelected="1" topLeftCell="A2915" workbookViewId="0">
+      <selection activeCell="C2712" sqref="C2712:H2712"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
